--- a/Templates/ModbusRTU数据导入模版.xlsx
+++ b/Templates/ModbusRTU数据导入模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A0CADD-6709-4B7A-8EE8-F033DC6E6D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C391338E-BC05-4A76-ACAD-01D1F254774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,6 +73,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+1200
+2400
+4800
 9600
 19200
 38400
@@ -186,9 +189,61 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>设置设备地址位置是否是从0开始
-0 代表从0开始
-1 代表从1开始，设置为1的时候，上位机下发数据时会自动将地址位减去1</t>
+          <t xml:space="preserve">有效值不分大小写
+True   代表从0开始
+False  代表从1开始
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{D3BD06D6-C84D-42BF-AE83-7DF7EC85D47D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有效值不分大小写
+True
+False</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{77BF6C19-6415-4682-A6C9-A2B26C435697}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有效值不分大小写
+True
+False</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{891AC929-1967-4246-BEC6-8899AA46E2C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有效值不分大小写
+True
+False</t>
         </r>
       </text>
     </comment>
@@ -385,7 +440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="183">
   <si>
     <t>Com口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2249,6 +2304,18 @@
   </si>
   <si>
     <t>ABCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否CRC校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否字符串颠倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2697,12 +2764,18 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="10.5" style="10" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="10" customWidth="1"/>
+    <col min="8" max="9" width="10.5" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -2739,7 +2812,25 @@
       <c r="A2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4200,7 +4291,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Templates/ModbusRTU数据导入模版.xlsx
+++ b/Templates/ModbusRTU数据导入模版.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C391338E-BC05-4A76-ACAD-01D1F254774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0A7696-AA7B-42B6-98BB-2C421CAF806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ModbusRTU" sheetId="1" r:id="rId1"/>
+    <sheet name="DataConfig" sheetId="1" r:id="rId1"/>
     <sheet name="字节顺序" sheetId="7" r:id="rId2"/>
     <sheet name="功能码" sheetId="6" r:id="rId3"/>
     <sheet name="奇偶校验详解" sheetId="3" r:id="rId4"/>
@@ -36,7 +36,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E453EB92-A652-4D12-926E-C0DC63062CB9}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E453EB92-A652-4D12-926E-C0DC63062CB9}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EB7B9886-9149-40ED-BFB4-E40487AEC4F7}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EB7B9886-9149-40ED-BFB4-E40487AEC4F7}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AC6C556A-2B58-4538-A22E-C0DA009BFCC2}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{AC6C556A-2B58-4538-A22E-C0DA009BFCC2}">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E2BB66C0-276C-471B-B0A1-A3985078CFC6}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{E2BB66C0-276C-471B-B0A1-A3985078CFC6}">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{DBCC1790-A3D7-4471-9A15-33B29D6AD16F}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{DBCC1790-A3D7-4471-9A15-33B29D6AD16F}">
       <text>
         <r>
           <rPr>
@@ -178,25 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{8053C5CC-CD74-4828-A93E-1EFB6DCE9180}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">有效值不分大小写
-True   代表从0开始
-False  代表从1开始
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{D3BD06D6-C84D-42BF-AE83-7DF7EC85D47D}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{891AC929-1967-4246-BEC6-8899AA46E2C9}">
       <text>
         <r>
           <rPr>
@@ -213,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{77BF6C19-6415-4682-A6C9-A2B26C435697}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{EEA2960C-7BD7-4D9B-B0E7-F89BD72C1427}">
       <text>
         <r>
           <rPr>
@@ -224,30 +206,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>有效值不分大小写
-True
-False</t>
+          <t>这是上位机使用的数据标签</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{891AC929-1967-4246-BEC6-8899AA46E2C9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>有效值不分大小写
-True
-False</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{7B8DAA97-16DE-4E90-BA87-2DE4C27FDFE3}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{7B8DAA97-16DE-4E90-BA87-2DE4C27FDFE3}">
       <text>
         <r>
           <rPr>
@@ -263,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{15D7D2BD-09F4-4417-B5B7-F744C833E8EA}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{15D7D2BD-09F4-4417-B5B7-F744C833E8EA}">
       <text>
         <r>
           <rPr>
@@ -284,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{C33A68F6-AF8E-4D66-814A-03BE252AEFF6}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C33A68F6-AF8E-4D66-814A-03BE252AEFF6}">
       <text>
         <r>
           <rPr>
@@ -300,7 +263,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{039EFE25-F7C6-463E-946A-309330F72792}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{C1A2242E-DADD-405E-84C5-761C493F63DD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">字节序
+ABCD
+BADC
+CDAB
+DCBA
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{039EFE25-F7C6-463E-946A-309330F72792}">
       <text>
         <r>
           <rPr>
@@ -336,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{A3D7DD60-B8DF-4096-8310-C937A2C574DD}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{A3D7DD60-B8DF-4096-8310-C937A2C574DD}">
       <text>
         <r>
           <rPr>
@@ -351,7 +333,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{48D974BE-ABBD-428C-BD49-4AD4BB4F66D7}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{60F188C4-20E0-4149-846E-D6521766582D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">有效值不分大小写
+False 不反转
+True 反转
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{48D974BE-ABBD-428C-BD49-4AD4BB4F66D7}">
       <text>
         <r>
           <rPr>
@@ -363,10 +363,8 @@
             <charset val="134"/>
           </rPr>
           <t>枚举:
-0 未知
-1 只读
-2 只写
-3 读写</t>
+0 只读
+1 读写</t>
         </r>
         <r>
           <rPr>
@@ -381,26 +379,54 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{C1A2242E-DADD-405E-84C5-761C493F63DD}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{871DED13-221B-436F-A56B-9A6DF5447A07}">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">字节序
-ABCD
-BADC
-CDAB
-DCBA
+          <t xml:space="preserve">数据写入最小值限制
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{4FC558E5-5536-4EC4-99B4-D5A7F3ECDC1A}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{BF998A0B-572A-402C-88E9-46C412ECD40D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数据写入最大值限制</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{C2F593D6-6B15-411A-8A89-05DC2A0442EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>小数点保留位数
+仅float和double类型有效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{4FC558E5-5536-4EC4-99B4-D5A7F3ECDC1A}">
       <text>
         <r>
           <rPr>
@@ -420,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{5B74DD5D-3039-4FAD-A188-699B95BCF135}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{5B74DD5D-3039-4FAD-A188-699B95BCF135}">
       <text>
         <r>
           <rPr>
@@ -440,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="193">
   <si>
     <t>Com口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1419,18 +1445,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否从0开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电机启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2307,15 +2325,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否CRC校验</t>
+    <t>是否自动连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否字符串颠倒</t>
+    <t>电机启动1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否自动连接</t>
+    <t>电机启动2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机启动3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机启动4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机启动5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机启动6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机启动7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModBusRTU连接配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯点位配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符是否反转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2411,7 +2477,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2422,6 +2488,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
       </patternFill>
     </fill>
   </fills>
@@ -2437,7 +2508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -2480,6 +2551,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2761,268 +2838,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="10" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="10" customWidth="1"/>
     <col min="8" max="9" width="10.5" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D2" s="10">
         <v>9600</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F2" s="10">
         <v>8</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J2" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="10" t="b">
+      <c r="K2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="J4" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>0</v>
       </c>
       <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="10">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="I6" s="10">
+        <v>2</v>
+      </c>
+      <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="N6" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10">
         <v>0</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="10">
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="D10" s="10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="N10" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10">
         <v>0</v>
       </c>
-      <c r="B8" s="10">
+      <c r="C11" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="D11" s="10">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="10">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2</v>
+      </c>
+      <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="10">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="10">
-        <v>10</v>
-      </c>
-      <c r="F10" s="10">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>140</v>
+      <c r="N11" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3044,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3052,7 +3215,7 @@
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -3060,7 +3223,7 @@
     </row>
     <row r="5" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3068,7 +3231,7 @@
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -3076,12 +3239,12 @@
     </row>
     <row r="9" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -3089,7 +3252,7 @@
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -3097,12 +3260,12 @@
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -3110,7 +3273,7 @@
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -3118,7 +3281,7 @@
     </row>
     <row r="19" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -3126,7 +3289,7 @@
     </row>
     <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -3134,12 +3297,12 @@
     </row>
     <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -3147,7 +3310,7 @@
     </row>
     <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -3155,12 +3318,12 @@
     </row>
     <row r="28" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -3168,7 +3331,7 @@
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -3176,7 +3339,7 @@
     </row>
     <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
@@ -3184,7 +3347,7 @@
     </row>
     <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -3195,12 +3358,12 @@
     </row>
     <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
@@ -3208,7 +3371,7 @@
     </row>
     <row r="41" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -3216,12 +3379,12 @@
     </row>
     <row r="43" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
@@ -3229,7 +3392,7 @@
     </row>
     <row r="46" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
@@ -3237,12 +3400,12 @@
     </row>
     <row r="48" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -3250,7 +3413,7 @@
     </row>
     <row r="51" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -3258,12 +3421,12 @@
     </row>
     <row r="53" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -3271,7 +3434,7 @@
     </row>
     <row r="56" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
